--- a/script/result_llm_tranform/ardupilot_docs/ap_airmode/result.xlsx
+++ b/script/result_llm_tranform/ardupilot_docs/ap_airmode/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300"/>
+    <workbookView windowWidth="30760" windowHeight="14680"/>
   </bookViews>
   <sheets>
     <sheet name="mtl" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="59">
   <si>
     <t>index</t>
   </si>
@@ -207,9 +207,6 @@
   </si>
   <si>
     <t>{'sentence': 'So if you have it on a switch but then use rudder-arming then you won\'t get "airmode".', 'formula': 'G((S ∧ R) → ¬M)', 'explanation': 'S represents having AIRMODE on a switch, R represents using rudder-arming, and M represents AIRMODE being active. The formula states that globally, if AIRMODE is on a switch but rudder-arming is used, AIRMODE will not be active.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': 'Sentence not found.', 'formula': '', 'explanation': 'No MTL formula can be derived as the sentence is not provided.'}</t>
   </si>
 </sst>
 </file>
@@ -1204,18 +1201,18 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13:L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="15" defaultRowHeight="16.8"/>
   <cols>
-    <col min="6" max="6" width="42.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="40.5555555555556" customWidth="1"/>
-    <col min="9" max="9" width="36.7777777777778" customWidth="1"/>
-    <col min="11" max="11" width="29.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="42.7788461538462" customWidth="1"/>
+    <col min="7" max="7" width="40.5576923076923" customWidth="1"/>
+    <col min="9" max="9" width="36.7788461538462" customWidth="1"/>
+    <col min="11" max="11" width="29.4423076923077" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" ht="17" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1253,7 +1250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="158.4" spans="1:12">
+    <row r="2" ht="168" spans="1:12">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1329,7 +1326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="244.8" spans="1:12">
+    <row r="4" ht="269" spans="1:12">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1367,7 +1364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="201.6" spans="1:12">
+    <row r="5" ht="219" spans="1:12">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1405,7 +1402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="316.8" spans="1:12">
+    <row r="6" ht="336" spans="1:12">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1443,7 +1440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="288" spans="1:12">
+    <row r="7" ht="303" spans="1:12">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1481,7 +1478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="172.8" spans="1:12">
+    <row r="8" ht="168" spans="1:12">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1519,7 +1516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="216" spans="1:12">
+    <row r="9" ht="236" spans="1:12">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -1557,7 +1554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" ht="17" spans="1:12">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1595,7 +1592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" ht="17" spans="1:12">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1633,7 +1630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" ht="17" spans="1:12">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -1671,7 +1668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" ht="86.4" spans="1:12">
+    <row r="13" ht="17" spans="1:12">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -1696,14 +1693,10 @@
       <c r="J13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" ht="17" spans="1:12">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1758,7 +1751,7 @@
       </c>
       <c r="K15">
         <f>COUNTIF(K2:K13,"*{*")</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L15">
         <f>COUNTIF(L2:L13,"1")</f>
@@ -1776,7 +1769,7 @@
       </c>
       <c r="L16">
         <f>COUNTIF(L2:L13,"0")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
